--- a/covid/latest/alburez_budget_KMC_dag.xlsx
+++ b/covid/latest/alburez_budget_KMC_dag.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Position</t>
   </si>
@@ -58,19 +58,13 @@
 Research visit to the Demography Unit of Stockholm University (Sweden) to work on micro-level data</t>
   </si>
   <si>
-    <t>Article processing and open access charges (expected three publications in top journals at around EUR 2,500 each)</t>
-  </si>
-  <si>
     <t>One Research Assistant to work on methodological development (18 months)</t>
   </si>
   <si>
     <t>I still need to justify this better and maybe add training costs for Ivan - we're looking into this</t>
   </si>
   <si>
-    <t>Ivan has agreed to 1 year post-doc working half-time for now, after that we could evaluate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is using the VW rates in: https://portal.volkswagenstiftung.de/vwsantrag/static/wissenschaftliches_Personal_en.pdf </t>
+    <t>Article processing and open access charges (expected two publications in top journals at around EUR 2,500 each)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +435,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,19 +473,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>34500</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -501,9 +493,7 @@
       <c r="C6">
         <v>67500</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -524,7 +514,7 @@
         <v>7000</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -532,10 +522,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -567,7 +557,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>SUM(C5:C12)</f>
-        <v>116500</v>
+        <v>114000</v>
       </c>
     </row>
   </sheetData>
